--- a/Data/Input/Config_Chapitres_Comptables.xlsx
+++ b/Data/Input/Config_Chapitres_Comptables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Talents\Documents\UiPath\RobTalent_UpdateChapter_Amplitude_TALENT_v1.0\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim Gueye\Documents\UiPath\RobTalent_UpdateChapter_Amplitude_TALENT_v1\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F0EE18-C31C-49E3-B021-7A469C8E0235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9FD4F-356D-4097-B738-6C6E07B25BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapitres_Comptables" sheetId="13" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>222111</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Chapitre Classe 4</t>
+  </si>
+  <si>
+    <t>Libellé</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -120,7 +132,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F6E56639-8DEA-47E9-8EA4-925C32B816D4}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -159,18 +174,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5EBE3E94-C987-46A9-A640-21B5E3116360}" name="Table1564545" displayName="Table1564545" ref="A1:F4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F4" xr:uid="{3230BB43-42F6-418A-A839-1278574FA77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5EBE3E94-C987-46A9-A640-21B5E3116360}" name="Table1564545" displayName="Table1564545" ref="A1:G4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G4" xr:uid="{3230BB43-42F6-418A-A839-1278574FA77E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="A1:A3"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{8A34B0E8-43CF-4778-A25B-C09257760DCF}" name="Type Compte" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{284D106E-0EB4-4B9D-AC0F-7D489603B943}" name="Chapitre Sain" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{2A4A1AC8-E2A0-4788-99F2-ECA18F8D467F}" name="Chapitre Classe 1" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{84E86479-391C-4F34-81D8-0397704F0861}" name="Chapitre Classe 2" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{51C09EC5-C3D8-43BA-8122-E73174D8E273}" name="Chapitre Classe 3" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{5BD59367-11D8-4342-85AE-4B7B312E1DA3}" name="Chapitre Classe 4" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{8A34B0E8-43CF-4778-A25B-C09257760DCF}" name="Type Compte" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C1960210-0808-4C72-BB26-96C5B83597A3}" name="Libellé" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{284D106E-0EB4-4B9D-AC0F-7D489603B943}" name="Chapitre Sain" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{2A4A1AC8-E2A0-4788-99F2-ECA18F8D467F}" name="Chapitre Classe 1" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{84E86479-391C-4F34-81D8-0397704F0861}" name="Chapitre Classe 2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{51C09EC5-C3D8-43BA-8122-E73174D8E273}" name="Chapitre Classe 3" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5BD59367-11D8-4342-85AE-4B7B312E1DA3}" name="Chapitre Classe 4" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -439,70 +455,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29F1B5E-6338-4956-B9F6-85E12FBB91BB}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
